--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationBarChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationBarChart.xlsx
@@ -82,6 +82,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8BD19"/>
+      <color rgb="FF91C3D5"/>
       <color rgb="FFB6DEE0"/>
       <color rgb="FF00958F"/>
     </mruColors>
@@ -138,7 +140,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF99FF"/>
+              <a:srgbClr val="91C3D5"/>
             </a:solidFill>
             <a:ln w="12700"/>
           </c:spPr>
@@ -171,8 +173,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542633472"/>
-        <c:axId val="526241728"/>
+        <c:axId val="540514304"/>
+        <c:axId val="113364928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -191,7 +193,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:srgbClr val="F8BD19"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -237,11 +239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547602944"/>
-        <c:axId val="526242304"/>
+        <c:axId val="540515328"/>
+        <c:axId val="113365504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="542633472"/>
+        <c:axId val="540514304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -251,7 +253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526241728"/>
+        <c:crossAx val="113364928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -259,7 +261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526241728"/>
+        <c:axId val="113364928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -269,12 +271,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542633472"/>
+        <c:crossAx val="540514304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526242304"/>
+        <c:axId val="113365504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -284,12 +286,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547602944"/>
+        <c:crossAx val="540515328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="547602944"/>
+        <c:axId val="540515328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,7 +301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526242304"/>
+        <c:crossAx val="113365504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -331,7 +333,7 @@
         </a:ln>
       </c:spPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
@@ -350,13 +352,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>6331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -366,15 +368,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11182350" cy="685799"/>
+          <a:off x="0" y="22243"/>
+          <a:ext cx="11182350" cy="641313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationBarChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationBarChart.xlsx
@@ -32,7 +32,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +51,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -64,10 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,8 +181,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="540514304"/>
-        <c:axId val="113364928"/>
+        <c:axId val="541764096"/>
+        <c:axId val="115199936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -239,11 +247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540515328"/>
-        <c:axId val="113365504"/>
+        <c:axId val="541765120"/>
+        <c:axId val="115200512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="540514304"/>
+        <c:axId val="541764096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113364928"/>
+        <c:crossAx val="115199936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,7 +269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113364928"/>
+        <c:axId val="115199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -271,12 +279,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540514304"/>
+        <c:crossAx val="541764096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113365504"/>
+        <c:axId val="115200512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,12 +294,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540515328"/>
+        <c:crossAx val="541765120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="540515328"/>
+        <c:axId val="541765120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -301,7 +309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113365504"/>
+        <c:crossAx val="115200512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -355,7 +363,7 @@
       <xdr:rowOff>22243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6331</xdr:rowOff>
@@ -382,7 +390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22243"/>
-          <a:ext cx="11182350" cy="641313"/>
+          <a:ext cx="11372850" cy="641313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -399,8 +407,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
@@ -713,65 +721,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S29"/>
+  <dimension ref="A3:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X1:AP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="42" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
